--- a/data/results/advanced_analysis/visualization/hfine_topics.xlsx
+++ b/data/results/advanced_analysis/visualization/hfine_topics.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36.72014925373134</v>
+        <v>35.60074626865671</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26.78484848484849</v>
+        <v>26.66363636363636</v>
       </c>
     </row>
     <row r="5">
